--- a/Sets-DemoModels.xlsx
+++ b/Sets-DemoModels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Pictures\TIMES-O-G-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_008\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF0C27B-C17B-4AB3-B669-85E711E22E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95320774-C7C6-438D-AACB-C285E1072EB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="113">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -118,12 +118,36 @@
     <t>ELE</t>
   </si>
   <si>
+    <t>ELCBIO</t>
+  </si>
+  <si>
+    <t>ELEBIO</t>
+  </si>
+  <si>
+    <t>*COA*</t>
+  </si>
+  <si>
+    <t>ELECOA</t>
+  </si>
+  <si>
     <t>*GAS*</t>
   </si>
   <si>
+    <t>ELEGAS</t>
+  </si>
+  <si>
     <t>*NUC*</t>
   </si>
   <si>
+    <t>ELENUC</t>
+  </si>
+  <si>
+    <t>*OIL*</t>
+  </si>
+  <si>
+    <t>ELEOIL</t>
+  </si>
+  <si>
     <t>*RNW*</t>
   </si>
   <si>
@@ -145,9 +169,33 @@
     <t>Solid Fuels</t>
   </si>
   <si>
+    <t>Biomass Power Plants</t>
+  </si>
+  <si>
+    <t>Coal Power Plants</t>
+  </si>
+  <si>
+    <t>Gas Power Plants</t>
+  </si>
+  <si>
+    <t>Nuclear Power Plants</t>
+  </si>
+  <si>
+    <t>Oil Power Plants</t>
+  </si>
+  <si>
     <t>Renewable Power Plants</t>
   </si>
   <si>
+    <t>*ELC*</t>
+  </si>
+  <si>
+    <t>,-*PLANTS*</t>
+  </si>
+  <si>
+    <t>NRG_ELC</t>
+  </si>
+  <si>
     <t>NRG_GAS</t>
   </si>
   <si>
@@ -157,6 +205,9 @@
     <t>Natural Gas</t>
   </si>
   <si>
+    <t>Electricity</t>
+  </si>
+  <si>
     <t>Nuclear</t>
   </si>
   <si>
@@ -199,64 +250,127 @@
     <t>Endogenous Trade</t>
   </si>
   <si>
-    <t>NRG_OIL</t>
-  </si>
-  <si>
-    <t>*OIL*</t>
-  </si>
-  <si>
-    <t>Crude Oil</t>
-  </si>
-  <si>
-    <t>Generation for transport</t>
-  </si>
-  <si>
-    <t>AUTO*</t>
-  </si>
-  <si>
-    <t>Generation for production</t>
-  </si>
-  <si>
-    <t>ELE, -AUTO_MID</t>
-  </si>
-  <si>
-    <t>AUTO_MID</t>
-  </si>
-  <si>
-    <t>AUTO_UP</t>
-  </si>
-  <si>
-    <t>*SOL, *WIN</t>
-  </si>
-  <si>
-    <t>AUTO_RN</t>
-  </si>
-  <si>
-    <t>ELE, -AUTO_RN, -AUTO_MID</t>
+    <t>*OIL*,*DSL*,*LPG*,*GSL*,*KER*,*OPP*,*HFO*,*NAP*</t>
+  </si>
+  <si>
+    <t>NRG_PP</t>
+  </si>
+  <si>
+    <t>Petroleoum &amp; Products</t>
   </si>
   <si>
     <t>*</t>
   </si>
   <si>
-    <t>AUTO_THER</t>
-  </si>
-  <si>
-    <t>Generation Thermal in Production</t>
-  </si>
-  <si>
-    <t>Generation Renewable in Production</t>
-  </si>
-  <si>
-    <t>AUTOCOL*</t>
-  </si>
-  <si>
-    <t>NRG_ELC</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>*ELC*</t>
+    <t>NRG_MISS</t>
+  </si>
+  <si>
+    <t>*** Missing Set Assignment ***</t>
+  </si>
+  <si>
+    <t>*COA*,*GAS*,*NGA*,*OIL*</t>
+  </si>
+  <si>
+    <t>PP_FOSSIL</t>
+  </si>
+  <si>
+    <t>*NUC</t>
+  </si>
+  <si>
+    <t>PP_NUCLEAR</t>
+  </si>
+  <si>
+    <t>ELE,-PP_FOSSIL,-PP_NUCLEAR,-PP_RENEW</t>
+  </si>
+  <si>
+    <t>PP_OTHER</t>
+  </si>
+  <si>
+    <t>*RNW,*WIN,*SOL,*BIO,*HYD</t>
+  </si>
+  <si>
+    <t>PP_RENEW</t>
+  </si>
+  <si>
+    <t>ELCTEGAS00,ELCTEOIL00,ELCTECOA00</t>
+  </si>
+  <si>
+    <t>PPFOSSIL</t>
+  </si>
+  <si>
+    <t>Fossil Power Plants</t>
+  </si>
+  <si>
+    <t>Other Power Plants</t>
+  </si>
+  <si>
+    <t>Fossil Power Plants (coa,gas,oil)</t>
+  </si>
+  <si>
+    <t>*BIO*,*SOL*,*WIN*,*RNW*,*HYD*,-*SOLID*,-ELCRNW,-RNW</t>
+  </si>
+  <si>
+    <t>NRG_RNW</t>
+  </si>
+  <si>
+    <t>NRG,-NRG_ELC,-NRG_GAS,-NRG_NUK,-NRG_PP,-NRG_RNW,-NRG_SOLID</t>
+  </si>
+  <si>
+    <t>Renewables</t>
+  </si>
+  <si>
+    <t>ELCHYD</t>
+  </si>
+  <si>
+    <t>ELEHYD</t>
+  </si>
+  <si>
+    <t>ELCSOL</t>
+  </si>
+  <si>
+    <t>ELESOL</t>
+  </si>
+  <si>
+    <t>ELCWIN</t>
+  </si>
+  <si>
+    <t>ELEWIN</t>
+  </si>
+  <si>
+    <t>AGR*</t>
+  </si>
+  <si>
+    <t>FUEL_AGR</t>
+  </si>
+  <si>
+    <t>COM*</t>
+  </si>
+  <si>
+    <t>FUEL_COM</t>
+  </si>
+  <si>
+    <t>IND*</t>
+  </si>
+  <si>
+    <t>FUEL_IND</t>
+  </si>
+  <si>
+    <t>Hydro Power Plants</t>
+  </si>
+  <si>
+    <t>Solar PV Power Plants</t>
+  </si>
+  <si>
+    <t>Wind Power Plants</t>
+  </si>
+  <si>
+    <t>Fuel Consumption Agriculture Sector</t>
+  </si>
+  <si>
+    <t>Fuel Consumption Commercial Sector</t>
+  </si>
+  <si>
+    <t>Fuel Consumption Industry Sector</t>
   </si>
 </sst>
 </file>
@@ -272,36 +386,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -316,12 +406,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,7 +426,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -636,29 +722,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -684,7 +770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -692,7 +778,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -701,15 +787,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -718,15 +804,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -735,12 +821,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>57</v>
@@ -752,20 +841,57 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
         <v>74</v>
       </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -776,58 +902,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06336B7-5D6A-48EE-B122-F085391548AD}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" customWidth="1"/>
-    <col min="8" max="9" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -835,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -844,7 +976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -852,7 +984,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -861,7 +993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -872,7 +1004,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -881,7 +1013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -889,7 +1021,7 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -898,96 +1030,99 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="G11" t="s">
         <v>49</v>
       </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s">
-        <v>54</v>
-      </c>
       <c r="H11" t="s">
         <v>13</v>
       </c>
@@ -995,87 +1130,325 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
         <v>71</v>
       </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="F13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>